--- a/data/trans_orig/P6706-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>62453</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50180</v>
+        <v>48253</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>78170</v>
+        <v>78283</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2255018441508977</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1811861943065601</v>
+        <v>0.1742299868720676</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2822510652740507</v>
+        <v>0.2826586016060255</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -764,19 +764,19 @@
         <v>44062</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32772</v>
+        <v>32878</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56733</v>
+        <v>56995</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1991460815411682</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1481152985770808</v>
+        <v>0.148595368657852</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2564104793113177</v>
+        <v>0.257597906364686</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -785,19 +785,19 @@
         <v>106515</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>89011</v>
+        <v>87405</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126587</v>
+        <v>125309</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2137971072558685</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1786618834714848</v>
+        <v>0.1754384273645083</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2540853985475716</v>
+        <v>0.2515194914551065</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>23319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15243</v>
+        <v>15371</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34663</v>
+        <v>33842</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08419908297364723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05503767217560409</v>
+        <v>0.05550210836849303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1251599037736507</v>
+        <v>0.1221963812051481</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -835,19 +835,19 @@
         <v>22858</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14457</v>
+        <v>15662</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33407</v>
+        <v>35280</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1033110486420299</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06533969377219984</v>
+        <v>0.0707873167867782</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1509885071639503</v>
+        <v>0.1594545863094682</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -856,19 +856,19 @@
         <v>46177</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33287</v>
+        <v>34735</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60238</v>
+        <v>61146</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09268681042087612</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06681373827092973</v>
+        <v>0.06971937151246967</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1209098213749626</v>
+        <v>0.1227321676670763</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>64034</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51477</v>
+        <v>50658</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79393</v>
+        <v>80748</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2312101056872381</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1858715439247301</v>
+        <v>0.1829117219871934</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2866685332781369</v>
+        <v>0.2915596545355179</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -906,19 +906,19 @@
         <v>44292</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33239</v>
+        <v>32565</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>58672</v>
+        <v>58005</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2001831333771614</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1502288530673339</v>
+        <v>0.14718350799446</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2651759099543209</v>
+        <v>0.2621615809192425</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>97</v>
@@ -927,19 +927,19 @@
         <v>108326</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>90808</v>
+        <v>89019</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>129525</v>
+        <v>129271</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2174308592690473</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1822694935389422</v>
+        <v>0.1786790920690904</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2599812930925512</v>
+        <v>0.2594717829339219</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>52975</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40592</v>
+        <v>41465</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68506</v>
+        <v>69862</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1912783730731656</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1465684062414094</v>
+        <v>0.1497197296939172</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2473579868998105</v>
+        <v>0.2522547823275215</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -977,19 +977,19 @@
         <v>37905</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26625</v>
+        <v>27452</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50210</v>
+        <v>50344</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1713176204193545</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1203339951004944</v>
+        <v>0.1240707584468058</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2269290350396263</v>
+        <v>0.2275366257231574</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -998,19 +998,19 @@
         <v>90880</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72720</v>
+        <v>73970</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107515</v>
+        <v>110433</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1824136947294107</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1459626452614478</v>
+        <v>0.1484726349341829</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2158024861149073</v>
+        <v>0.2216600283379181</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>74170</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58521</v>
+        <v>58562</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>89414</v>
+        <v>90884</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2678105941150514</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2113060519059345</v>
+        <v>0.211453906068323</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3228505260045794</v>
+        <v>0.3281589400262296</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -1048,19 +1048,19 @@
         <v>72139</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>59359</v>
+        <v>58552</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>88115</v>
+        <v>88596</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3260421160202859</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2682788175291438</v>
+        <v>0.2646325432143967</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3982488883975849</v>
+        <v>0.4004204114126085</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>134</v>
@@ -1069,19 +1069,19 @@
         <v>146310</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>125353</v>
+        <v>127535</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>166373</v>
+        <v>167316</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2936715283247974</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2516068372727529</v>
+        <v>0.2559878206598641</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3339421224823736</v>
+        <v>0.3358358545888749</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>78047</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63583</v>
+        <v>63576</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>95338</v>
+        <v>94771</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2063849490221799</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1681362594470992</v>
+        <v>0.1681172575426029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2521081026386862</v>
+        <v>0.2506093331817268</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -1194,19 +1194,19 @@
         <v>45085</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34323</v>
+        <v>34163</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58913</v>
+        <v>59794</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1779977120429262</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.135510151131657</v>
+        <v>0.1348759576414733</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2325916201144344</v>
+        <v>0.2360696656129213</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>116</v>
@@ -1215,19 +1215,19 @@
         <v>123132</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105659</v>
+        <v>102891</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144761</v>
+        <v>145568</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1949982300665344</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.167326399923283</v>
+        <v>0.1629439546860252</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2292513180174161</v>
+        <v>0.2305289256838745</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>41414</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30666</v>
+        <v>30563</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54930</v>
+        <v>54841</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1095134106563818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08109332720898395</v>
+        <v>0.08081937916141742</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1452550444475594</v>
+        <v>0.1450193543347725</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -1265,19 +1265,19 @@
         <v>28915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18923</v>
+        <v>19155</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41226</v>
+        <v>40866</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1141598675056107</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07470998746159993</v>
+        <v>0.07562535139654483</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1627643752213668</v>
+        <v>0.1613400630940537</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>65</v>
@@ -1286,19 +1286,19 @@
         <v>70329</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>55893</v>
+        <v>53734</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>88994</v>
+        <v>86643</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1113772024132326</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08851533285126338</v>
+        <v>0.08509563422814649</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1409355852891472</v>
+        <v>0.1372120779378461</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>66688</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>52939</v>
+        <v>54021</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>82603</v>
+        <v>83213</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1763482250623995</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.139990766221007</v>
+        <v>0.1428521125540739</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2184312718232782</v>
+        <v>0.2200460385367043</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -1336,19 +1336,19 @@
         <v>52698</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40467</v>
+        <v>40929</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>67387</v>
+        <v>66643</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2080562259559864</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1597665960408785</v>
+        <v>0.161589903324622</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2660462712546107</v>
+        <v>0.2631121432041863</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>115</v>
@@ -1357,19 +1357,19 @@
         <v>119387</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>100921</v>
+        <v>98866</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>140184</v>
+        <v>141661</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1890669724024275</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1598243747369657</v>
+        <v>0.1565691423812212</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2220033392205048</v>
+        <v>0.224341554233846</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>87421</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70990</v>
+        <v>70408</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104666</v>
+        <v>105696</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2311738375431815</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.187723348688665</v>
+        <v>0.1861835964413061</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2767744558866542</v>
+        <v>0.2794974422672227</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -1407,19 +1407,19 @@
         <v>45837</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33950</v>
+        <v>34445</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59631</v>
+        <v>61190</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1809686320947258</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1340370307448</v>
+        <v>0.1359925421150461</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.235426885687646</v>
+        <v>0.2415820393537509</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -1428,19 +1428,19 @@
         <v>133259</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113390</v>
+        <v>112796</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154468</v>
+        <v>155797</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2110354716652413</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1795698639221331</v>
+        <v>0.1786289081697278</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.244623266508978</v>
+        <v>0.2467273916672719</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>104592</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>88301</v>
+        <v>87276</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>122968</v>
+        <v>121993</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2765795777158573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2334991878547397</v>
+        <v>0.2307898823446043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3251726573657843</v>
+        <v>0.3225942917788901</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -1478,19 +1478,19 @@
         <v>80753</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65423</v>
+        <v>65149</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95607</v>
+        <v>96681</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3188175624007508</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2582949007081509</v>
+        <v>0.2572129687402699</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3774632920421954</v>
+        <v>0.381701078981263</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>176</v>
@@ -1499,19 +1499,19 @@
         <v>185345</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>163385</v>
+        <v>162603</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>209531</v>
+        <v>209982</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2935221234525641</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2587456272371874</v>
+        <v>0.257506671789582</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3318235091635214</v>
+        <v>0.3325389320968695</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>58318</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45497</v>
+        <v>44886</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76274</v>
+        <v>72970</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.128461353279559</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1002207093831621</v>
+        <v>0.09887506613316306</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.168015035415417</v>
+        <v>0.1607364501466221</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -1624,19 +1624,19 @@
         <v>38768</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27590</v>
+        <v>28245</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50682</v>
+        <v>50867</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1396858713121077</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09941086473260717</v>
+        <v>0.1017718963296419</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1826134674381592</v>
+        <v>0.1832807641506504</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>93</v>
@@ -1645,19 +1645,19 @@
         <v>97086</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79205</v>
+        <v>79641</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>116954</v>
+        <v>117191</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1327199760114418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1082756807213802</v>
+        <v>0.1088727957213459</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1598804827604102</v>
+        <v>0.1602045053805769</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>56610</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44000</v>
+        <v>43729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>72436</v>
+        <v>71583</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1247006755235363</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09692354246856866</v>
+        <v>0.09632593777339586</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.15956159707698</v>
+        <v>0.1576809806398508</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -1695,19 +1695,19 @@
         <v>46559</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35293</v>
+        <v>34168</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61434</v>
+        <v>59025</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.167756991666401</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1271636613336124</v>
+        <v>0.1231121928519053</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2213560396476472</v>
+        <v>0.2126750695207009</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>100</v>
@@ -1716,19 +1716,19 @@
         <v>103169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>84363</v>
+        <v>84699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>123802</v>
+        <v>123393</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1410363975692783</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1153272248755181</v>
+        <v>0.1157875033712273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1692422606871246</v>
+        <v>0.1686832237272201</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>100460</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>82922</v>
+        <v>83903</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>119497</v>
+        <v>119784</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2212912904617203</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1826588149145988</v>
+        <v>0.1848204466359414</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2632270137203338</v>
+        <v>0.2638579680584489</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -1766,19 +1766,19 @@
         <v>54170</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40977</v>
+        <v>42561</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>67780</v>
+        <v>69521</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1951818603655231</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1476453184022754</v>
+        <v>0.1533532437243903</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2442207346619867</v>
+        <v>0.2504920746489634</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>148</v>
@@ -1787,19 +1787,19 @@
         <v>154630</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132482</v>
+        <v>133703</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>179473</v>
+        <v>178103</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2113852782657631</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1811080832991784</v>
+        <v>0.1827769831715101</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.245346946075406</v>
+        <v>0.2434732749509864</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>98876</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>80498</v>
+        <v>82553</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>116246</v>
+        <v>119910</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2178013990166751</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1773191462063025</v>
+        <v>0.1818469555726306</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2560651699073758</v>
+        <v>0.2641363573324356</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -1837,19 +1837,19 @@
         <v>58886</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47096</v>
+        <v>46212</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73870</v>
+        <v>74000</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2121728474025646</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.169691097470577</v>
+        <v>0.1665073018307683</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2661638190465443</v>
+        <v>0.2666306515980891</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>150</v>
@@ -1858,19 +1858,19 @@
         <v>157761</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>136090</v>
+        <v>134822</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>182780</v>
+        <v>181420</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2156659061801971</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1860409384899062</v>
+        <v>0.1843067449182995</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2498677511249165</v>
+        <v>0.24800787399405</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>139707</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>121300</v>
+        <v>118917</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160652</v>
+        <v>161589</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3077452817185093</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2671977711192333</v>
+        <v>0.2619491367424694</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3538808676164873</v>
+        <v>0.3559460035367677</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -1908,19 +1908,19 @@
         <v>79154</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>64150</v>
+        <v>65814</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>95323</v>
+        <v>95518</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2852024292534035</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2311386736694532</v>
+        <v>0.2371357028157558</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3434615414004968</v>
+        <v>0.3441628231682791</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>199</v>
@@ -1929,19 +1929,19 @@
         <v>218862</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>193624</v>
+        <v>193695</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>245334</v>
+        <v>242729</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2991924419733198</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2646911951647133</v>
+        <v>0.2647882545233709</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3353809060328177</v>
+        <v>0.3318195425259894</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>57644</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43286</v>
+        <v>43765</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73653</v>
+        <v>73404</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.198359584838624</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1489522015762313</v>
+        <v>0.1506015142979013</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2534474121106008</v>
+        <v>0.2525917947063606</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -2054,19 +2054,19 @@
         <v>24785</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15858</v>
+        <v>16038</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35404</v>
+        <v>36085</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1359664691349135</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08699345955576325</v>
+        <v>0.08798109378348</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1942187830074845</v>
+        <v>0.1979577642565992</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -2075,19 +2075,19 @@
         <v>82429</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66139</v>
+        <v>65797</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>100256</v>
+        <v>100624</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1743086050097003</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1398607338436279</v>
+        <v>0.1391385898817125</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2120067318782439</v>
+        <v>0.2127841466742151</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>39343</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26968</v>
+        <v>28101</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>54736</v>
+        <v>55911</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1353839087584116</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09280111690666124</v>
+        <v>0.09669985688623187</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1883536080542702</v>
+        <v>0.1923980100687726</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2125,19 +2125,19 @@
         <v>13520</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7385</v>
+        <v>7331</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22712</v>
+        <v>22051</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07416631217551324</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0405105831435036</v>
+        <v>0.04021859074011215</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1245932601470081</v>
+        <v>0.1209664426871814</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>45</v>
@@ -2146,19 +2146,19 @@
         <v>52863</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>40571</v>
+        <v>38632</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>70146</v>
+        <v>67646</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1117860620411187</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08579349139152966</v>
+        <v>0.08169286795755522</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1483336851035271</v>
+        <v>0.1430468634574025</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>47587</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35559</v>
+        <v>35040</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>61701</v>
+        <v>60735</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1637538451982584</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1223642438748572</v>
+        <v>0.1205785774436075</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2123205686805039</v>
+        <v>0.2089970330105163</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>40</v>
@@ -2196,19 +2196,19 @@
         <v>43172</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31571</v>
+        <v>32804</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56024</v>
+        <v>56054</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2368369133230759</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1731930045108769</v>
+        <v>0.1799583243325569</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3073374328094023</v>
+        <v>0.3075048840782639</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>87</v>
@@ -2217,19 +2217,19 @@
         <v>90760</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>75149</v>
+        <v>74761</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>110637</v>
+        <v>109656</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1919255333321356</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1589129652755728</v>
+        <v>0.1580928131705932</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2339588571986701</v>
+        <v>0.2318852627581151</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>57321</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43303</v>
+        <v>43248</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>73302</v>
+        <v>72852</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1972497773891838</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1490117532744983</v>
+        <v>0.1488214034995229</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2522398969923745</v>
+        <v>0.2506918897487873</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -2267,19 +2267,19 @@
         <v>35016</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24363</v>
+        <v>24884</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47395</v>
+        <v>47849</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1920927596691197</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.133650170197435</v>
+        <v>0.1365100929923407</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2600040170352479</v>
+        <v>0.2624934868364104</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -2288,19 +2288,19 @@
         <v>92338</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73475</v>
+        <v>74545</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>110459</v>
+        <v>111141</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1952618765164071</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1553732851125114</v>
+        <v>0.1576361840138668</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2335815044286528</v>
+        <v>0.2350239156414614</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>88707</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72004</v>
+        <v>72648</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>105693</v>
+        <v>104447</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3052528838155222</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2477748960016548</v>
+        <v>0.249989366986533</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3637009849477141</v>
+        <v>0.3594143719143085</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>58</v>
@@ -2338,19 +2338,19 @@
         <v>65794</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52629</v>
+        <v>51772</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80578</v>
+        <v>79345</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3609375456973776</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2887176567069417</v>
+        <v>0.2840119099247945</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4420369741504581</v>
+        <v>0.4352730368901146</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>138</v>
@@ -2359,19 +2359,19 @@
         <v>154502</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>133365</v>
+        <v>133658</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>175120</v>
+        <v>177003</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3267179231006384</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2820214502732378</v>
+        <v>0.282641042054653</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3703175278222145</v>
+        <v>0.3742996524329776</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>256462</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>228301</v>
+        <v>227545</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>288053</v>
+        <v>286826</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1832277749221539</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1631086930195264</v>
+        <v>0.1625685962513204</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2057977122821993</v>
+        <v>0.2049214058923567</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>140</v>
@@ -2484,19 +2484,19 @@
         <v>152700</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>132484</v>
+        <v>131409</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>181511</v>
+        <v>179204</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1634258605243422</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1417893504339411</v>
+        <v>0.140639101595361</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.194260657051132</v>
+        <v>0.1917916967557782</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>383</v>
@@ -2505,19 +2505,19 @@
         <v>409162</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>369797</v>
+        <v>370009</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>447334</v>
+        <v>445734</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1753006772152386</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1584352687088558</v>
+        <v>0.1585261903347606</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1916550828663769</v>
+        <v>0.1909693798071212</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>160687</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>137551</v>
+        <v>137325</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>185871</v>
+        <v>186266</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1148015893696472</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09827235524830856</v>
+        <v>0.098111053285673</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1327946556764042</v>
+        <v>0.1330767855268544</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>105</v>
@@ -2555,19 +2555,19 @@
         <v>111852</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>93057</v>
+        <v>93306</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>135072</v>
+        <v>130592</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1197085085802641</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09959368942043065</v>
+        <v>0.09985976801968534</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1445595816320964</v>
+        <v>0.1397650646613769</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>255</v>
@@ -2576,19 +2576,19 @@
         <v>272539</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>242008</v>
+        <v>243991</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>304620</v>
+        <v>306416</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1167659261120986</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1036852588498423</v>
+        <v>0.104535038897843</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1305106329270397</v>
+        <v>0.1312801995723396</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>278770</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>249271</v>
+        <v>249124</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>310571</v>
+        <v>310567</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1991654029651577</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1780899222505181</v>
+        <v>0.1779851696239991</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2218855613863871</v>
+        <v>0.2218831744562776</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>179</v>
@@ -2626,19 +2626,19 @@
         <v>194333</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>168112</v>
+        <v>170495</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>222350</v>
+        <v>221370</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2079826701973786</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1799205652078834</v>
+        <v>0.1824702125580811</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2379680168001113</v>
+        <v>0.2369184975892381</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>447</v>
@@ -2647,19 +2647,19 @@
         <v>473102</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>433171</v>
+        <v>433559</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>517762</v>
+        <v>515119</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2026951293064412</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1855872051056131</v>
+        <v>0.1857533326933972</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2218290763403294</v>
+        <v>0.2206965930271609</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>296593</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>267322</v>
+        <v>265311</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>329741</v>
+        <v>327246</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2118993906840634</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1909870117992208</v>
+        <v>0.189549982344938</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2355813348192885</v>
+        <v>0.2337992619399432</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>165</v>
@@ -2697,19 +2697,19 @@
         <v>177644</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>152245</v>
+        <v>153636</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>204502</v>
+        <v>201937</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.19012213695516</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1629388575522507</v>
+        <v>0.1644277703647304</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2188664465290789</v>
+        <v>0.2161212706525678</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>445</v>
@@ -2718,19 +2718,19 @@
         <v>474238</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>439322</v>
+        <v>437684</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>518407</v>
+        <v>513752</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2031815256014641</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1882222725640526</v>
+        <v>0.1875205883994331</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2221054889886326</v>
+        <v>0.2201110763471266</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>407178</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>371280</v>
+        <v>368812</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>438662</v>
+        <v>441624</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2909058420589779</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2652587635016225</v>
+        <v>0.2634957295553522</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.313399509857618</v>
+        <v>0.3155159354512187</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>273</v>
@@ -2768,19 +2768,19 @@
         <v>297841</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>269490</v>
+        <v>269065</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>327296</v>
+        <v>333628</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3187608237428551</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2884190748574924</v>
+        <v>0.2879636099111853</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3502847176252902</v>
+        <v>0.3570617966493581</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>647</v>
@@ -2789,19 +2789,19 @@
         <v>705018</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>659289</v>
+        <v>661777</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>748864</v>
+        <v>752985</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3020567417647575</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2824644262538787</v>
+        <v>0.2835307218603234</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3208420166205758</v>
+        <v>0.3226074373667522</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>71177</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55825</v>
+        <v>57287</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87454</v>
+        <v>88823</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2424467884971232</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1901552620745088</v>
+        <v>0.1951323026537166</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2978889893324508</v>
+        <v>0.3025543161858363</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -3154,19 +3154,19 @@
         <v>37650</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27615</v>
+        <v>27056</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50891</v>
+        <v>51261</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1358081380538362</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09960855783346852</v>
+        <v>0.09759266013716353</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1835684765775733</v>
+        <v>0.1849025782304015</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -3175,19 +3175,19 @@
         <v>108827</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90317</v>
+        <v>90904</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>129408</v>
+        <v>127741</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1906544655885404</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1582270206463499</v>
+        <v>0.1592542944822103</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2267097458286464</v>
+        <v>0.2237898826773332</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>65833</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51826</v>
+        <v>53692</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82010</v>
+        <v>81770</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2242424578858321</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1765335249416911</v>
+        <v>0.1828896845733496</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2793476492657366</v>
+        <v>0.2785275948255329</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -3225,19 +3225,19 @@
         <v>54376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41890</v>
+        <v>41506</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69419</v>
+        <v>68096</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1961390729624511</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1511015315501628</v>
+        <v>0.1497176422482186</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2504004190865787</v>
+        <v>0.2456307906498289</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>112</v>
@@ -3246,19 +3246,19 @@
         <v>120208</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>101462</v>
+        <v>102141</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>142088</v>
+        <v>143205</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2105931892508165</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1777510253248551</v>
+        <v>0.1789414043581433</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2489246438323978</v>
+        <v>0.250880724607369</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>60579</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46783</v>
+        <v>46323</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>75222</v>
+        <v>73683</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2063484934008732</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1593547704562714</v>
+        <v>0.1577886726002705</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2562252963513444</v>
+        <v>0.2509830929638646</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>59</v>
@@ -3296,19 +3296,19 @@
         <v>60423</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47870</v>
+        <v>47854</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>74156</v>
+        <v>75983</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.217950185010769</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1726726105240546</v>
+        <v>0.1726141825944219</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2674885176968677</v>
+        <v>0.2740789185570686</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>115</v>
@@ -3317,19 +3317,19 @@
         <v>121002</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>102727</v>
+        <v>101200</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>142426</v>
+        <v>141053</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2119832098535639</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1799682344385935</v>
+        <v>0.1772920363744099</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2495169125430006</v>
+        <v>0.2471107019513908</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>48562</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36730</v>
+        <v>36086</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62153</v>
+        <v>62317</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.165415152161872</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1251119420713693</v>
+        <v>0.1229187143614152</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2117097412577252</v>
+        <v>0.2122670172911401</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -3367,19 +3367,19 @@
         <v>54019</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42343</v>
+        <v>42175</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68483</v>
+        <v>67290</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1948527177237092</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1527367148661179</v>
+        <v>0.1521285610491858</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.247024631995305</v>
+        <v>0.2427207479636786</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -3388,19 +3388,19 @@
         <v>102581</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>86147</v>
+        <v>82510</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>124849</v>
+        <v>121081</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1797124064395983</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1509211631694731</v>
+        <v>0.1445485162978885</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2187224773039123</v>
+        <v>0.2121212675362167</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>47427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33791</v>
+        <v>35785</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61742</v>
+        <v>61291</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1615471080542994</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1151001189204415</v>
+        <v>0.1218928464184049</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2103076639532301</v>
+        <v>0.2087740250007774</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -3438,19 +3438,19 @@
         <v>70763</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57225</v>
+        <v>57753</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86274</v>
+        <v>86553</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2552498862492345</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.206416056825516</v>
+        <v>0.2083198875700949</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3111974259109417</v>
+        <v>0.3122071424244355</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>114</v>
@@ -3459,19 +3459,19 @@
         <v>118190</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>100868</v>
+        <v>97497</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>139135</v>
+        <v>137378</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2070567288674808</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1767113199268749</v>
+        <v>0.1708042576554913</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.243750958820253</v>
+        <v>0.2406720205390858</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>68022</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53329</v>
+        <v>54454</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83399</v>
+        <v>83369</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1742035497005982</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1365739764156521</v>
+        <v>0.1394561823506774</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2135844842175743</v>
+        <v>0.2135068313449784</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -3584,19 +3584,19 @@
         <v>48913</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36494</v>
+        <v>36199</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61375</v>
+        <v>61657</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1811246737094737</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1351365451028232</v>
+        <v>0.134044086623959</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2272720369414417</v>
+        <v>0.2283160331309708</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -3605,19 +3605,19 @@
         <v>116935</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>99677</v>
+        <v>97559</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138467</v>
+        <v>138311</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.177033211664875</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1509047188886706</v>
+        <v>0.1476991578551826</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2096304710979413</v>
+        <v>0.2093954572428406</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>63989</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50955</v>
+        <v>50744</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79346</v>
+        <v>80149</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1638760307050977</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.130496096366446</v>
+        <v>0.1299542542554893</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2032038570036922</v>
+        <v>0.2052611727100396</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -3655,19 +3655,19 @@
         <v>36018</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25979</v>
+        <v>25357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47339</v>
+        <v>48648</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1333726096851452</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09619825659503513</v>
+        <v>0.09389505814313517</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1752963685323829</v>
+        <v>0.1801423302357565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -3676,19 +3676,19 @@
         <v>100007</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>83918</v>
+        <v>83757</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>117961</v>
+        <v>119475</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1514048814915027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1270474727665258</v>
+        <v>0.1268028436885561</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1785855014351175</v>
+        <v>0.180878419559267</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>89520</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>74305</v>
+        <v>72849</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108787</v>
+        <v>106141</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2292590967915059</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1902936993012408</v>
+        <v>0.186564919224023</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2786015298207037</v>
+        <v>0.2718269437870522</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>60</v>
@@ -3726,19 +3726,19 @@
         <v>61968</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48518</v>
+        <v>49707</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76359</v>
+        <v>76838</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2294654630805071</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1796609263134051</v>
+        <v>0.1840628847463719</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2827562161168808</v>
+        <v>0.2845282817891737</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>146</v>
@@ -3747,19 +3747,19 @@
         <v>151488</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>132708</v>
+        <v>130372</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>175337</v>
+        <v>172756</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2293434684684108</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2009129574548379</v>
+        <v>0.1973750640219092</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2654501907303474</v>
+        <v>0.2615424050584186</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>96641</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80558</v>
+        <v>81570</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114966</v>
+        <v>115005</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2474956683516501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2063081675344349</v>
+        <v>0.2089000559109478</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2944259001827746</v>
+        <v>0.2945276905693914</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -3797,19 +3797,19 @@
         <v>54644</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42892</v>
+        <v>42679</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68679</v>
+        <v>68552</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2023446813006731</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1588271808801514</v>
+        <v>0.1580389487921547</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2543169813342597</v>
+        <v>0.2538458755159729</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>145</v>
@@ -3818,19 +3818,19 @@
         <v>151284</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131511</v>
+        <v>129558</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>172728</v>
+        <v>174805</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2290359455459519</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1991005857364111</v>
+        <v>0.1961428637579894</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2615003433852316</v>
+        <v>0.2646446895533783</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>72302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56035</v>
+        <v>57168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>88448</v>
+        <v>89311</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.185165654451148</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1435054082495627</v>
+        <v>0.1464073317212401</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2265156378131314</v>
+        <v>0.2287251569890623</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -3868,19 +3868,19 @@
         <v>68510</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55559</v>
+        <v>55691</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84946</v>
+        <v>83976</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2536925722242009</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2057337387890654</v>
+        <v>0.2062213248666779</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3145533006954844</v>
+        <v>0.3109594677227741</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>131</v>
@@ -3889,19 +3889,19 @@
         <v>140813</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>119260</v>
+        <v>120503</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>164586</v>
+        <v>163598</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2131824928292595</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1805533150608498</v>
+        <v>0.1824342301609399</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2491736798385125</v>
+        <v>0.2476782485697478</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>90345</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>73869</v>
+        <v>74814</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108030</v>
+        <v>108764</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.198043793238785</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1619275782049876</v>
+        <v>0.163997511955636</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2368097116064027</v>
+        <v>0.2384193823250719</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -4014,19 +4014,19 @@
         <v>36273</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26682</v>
+        <v>27036</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48778</v>
+        <v>47750</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1248064841350771</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09180642984211453</v>
+        <v>0.09302339202951969</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1678328105900557</v>
+        <v>0.1642957382283419</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>121</v>
@@ -4035,19 +4035,19 @@
         <v>126619</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105544</v>
+        <v>108605</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>148343</v>
+        <v>149894</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1695426366367832</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1413231423721295</v>
+        <v>0.1454224867832113</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.198631315561098</v>
+        <v>0.2007092480066285</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>63343</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47708</v>
+        <v>48975</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79189</v>
+        <v>79873</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.138852370454509</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.104580569643171</v>
+        <v>0.1073562099422518</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.173587599396042</v>
+        <v>0.1750870933146925</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>36</v>
@@ -4085,19 +4085,19 @@
         <v>35731</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25831</v>
+        <v>25919</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47137</v>
+        <v>47861</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1229407225773743</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08887878082683524</v>
+        <v>0.08918154836207172</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1621874220541834</v>
+        <v>0.1646760346704941</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>94</v>
@@ -4106,19 +4106,19 @@
         <v>99074</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>81750</v>
+        <v>82198</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>119134</v>
+        <v>119055</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.132660166323962</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1094630264169614</v>
+        <v>0.1100635270379473</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1595210914599569</v>
+        <v>0.1594156995385058</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>97739</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80925</v>
+        <v>81527</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>117188</v>
+        <v>116133</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2142524460795155</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.177394288193028</v>
+        <v>0.1787137664733396</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2568859427890969</v>
+        <v>0.2545719354518684</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>72</v>
@@ -4156,19 +4156,19 @@
         <v>70125</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>56439</v>
+        <v>56464</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>85855</v>
+        <v>85862</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.241283269937565</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1941917060168774</v>
+        <v>0.1942795187556668</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2954036452417975</v>
+        <v>0.295430433656181</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>161</v>
@@ -4177,19 +4177,19 @@
         <v>167865</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>145624</v>
+        <v>145180</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>192661</v>
+        <v>190136</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2247718077721803</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1949910147916287</v>
+        <v>0.1943970868608729</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2579735494379181</v>
+        <v>0.254592716728006</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>99357</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>83215</v>
+        <v>83514</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>117016</v>
+        <v>119395</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2177988731969649</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1824135488644842</v>
+        <v>0.1830689719447512</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2565076398841185</v>
+        <v>0.2617228884080394</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -4227,19 +4227,19 @@
         <v>55351</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43876</v>
+        <v>43913</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68693</v>
+        <v>69552</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1904486662673892</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1509665662819019</v>
+        <v>0.1510915867444646</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2363539056236698</v>
+        <v>0.2393089071572727</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>152</v>
@@ -4248,19 +4248,19 @@
         <v>154708</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>132705</v>
+        <v>134233</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>178023</v>
+        <v>179023</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2071552198413623</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1776928624408225</v>
+        <v>0.1797379453034125</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2383730407622293</v>
+        <v>0.2397121342737627</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>105403</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88512</v>
+        <v>86819</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>125667</v>
+        <v>124474</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2310525170302256</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1940259279662699</v>
+        <v>0.1903140499827037</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2754709696816166</v>
+        <v>0.2728564107444117</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>91</v>
@@ -4298,19 +4298,19 @@
         <v>93155</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>77880</v>
+        <v>76810</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>108543</v>
+        <v>108400</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3205208570825945</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2679639425427764</v>
+        <v>0.2642828815651795</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.373469282856574</v>
+        <v>0.3729778615052972</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>190</v>
@@ -4319,19 +4319,19 @@
         <v>198558</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>173535</v>
+        <v>174489</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>222699</v>
+        <v>223072</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2658701694257122</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2323643849284557</v>
+        <v>0.233640916306148</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2981947253096806</v>
+        <v>0.2986941283407383</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>72236</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56257</v>
+        <v>56923</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88179</v>
+        <v>88446</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2625352440955403</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2044610901317536</v>
+        <v>0.206881470150075</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3204767508370899</v>
+        <v>0.3214489532376547</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -4444,19 +4444,19 @@
         <v>38303</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28164</v>
+        <v>27583</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49942</v>
+        <v>49485</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1973741356618703</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.145125895814508</v>
+        <v>0.1421349664210479</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.257349751567594</v>
+        <v>0.2549940490450052</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>102</v>
@@ -4465,19 +4465,19 @@
         <v>110539</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>92946</v>
+        <v>93500</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>130579</v>
+        <v>129760</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2355850549699265</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.198089806528447</v>
+        <v>0.1992706723342107</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2782951974664332</v>
+        <v>0.2765495273238218</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>34580</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24118</v>
+        <v>23941</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>48557</v>
+        <v>47142</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1256773311197259</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08765556249038228</v>
+        <v>0.08701167421321726</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1764749334529415</v>
+        <v>0.1713325530841732</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>26</v>
@@ -4515,19 +4515,19 @@
         <v>27193</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18222</v>
+        <v>18622</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>38136</v>
+        <v>38185</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1401261428149509</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09389638219034649</v>
+        <v>0.09595619399711099</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.196511784618376</v>
+        <v>0.1967672312776361</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>57</v>
@@ -4536,19 +4536,19 @@
         <v>61773</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>46796</v>
+        <v>47832</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>78195</v>
+        <v>77542</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1316532608911336</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09973420209343366</v>
+        <v>0.1019414276531401</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1666517479159281</v>
+        <v>0.1652603887230501</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>57225</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>43864</v>
+        <v>43576</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>71552</v>
+        <v>71866</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.207977800499213</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1594188524956266</v>
+        <v>0.158372232281394</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2600468035905044</v>
+        <v>0.2611908268063488</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>48</v>
@@ -4586,19 +4586,19 @@
         <v>51635</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39029</v>
+        <v>39212</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>64584</v>
+        <v>65119</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2660738102801076</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2011155759179958</v>
+        <v>0.2020584237660036</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3327981714582075</v>
+        <v>0.335554396096384</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>99</v>
@@ -4607,19 +4607,19 @@
         <v>108860</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>89520</v>
+        <v>92402</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>129483</v>
+        <v>132082</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.232005913106174</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1907887073024861</v>
+        <v>0.1969296309194821</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2759582889918376</v>
+        <v>0.2814969703996645</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>52985</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39468</v>
+        <v>39846</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>67121</v>
+        <v>68398</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1925684056560411</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1434423442341578</v>
+        <v>0.144816171053462</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2439439468165727</v>
+        <v>0.2485836754872797</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -4657,19 +4657,19 @@
         <v>29691</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20286</v>
+        <v>20081</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41374</v>
+        <v>41666</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1529986022097469</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1045334479938698</v>
+        <v>0.1034779620727553</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2131991207256643</v>
+        <v>0.214704529318015</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -4678,19 +4678,19 @@
         <v>82676</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>66279</v>
+        <v>63695</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>99949</v>
+        <v>98227</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1762026053776966</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1412561628645208</v>
+        <v>0.1357495289068742</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2130141688603053</v>
+        <v>0.2093450267558462</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>58123</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44982</v>
+        <v>44096</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72477</v>
+        <v>72557</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2112412186294797</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1634810712437909</v>
+        <v>0.1602606027385596</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2634106002406343</v>
+        <v>0.2636996079641065</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -4728,19 +4728,19 @@
         <v>47240</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35893</v>
+        <v>35713</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>59564</v>
+        <v>59580</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2434273090333244</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1849558232825462</v>
+        <v>0.1840268406548221</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3069337240124836</v>
+        <v>0.3070126341938081</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>100</v>
@@ -4749,19 +4749,19 @@
         <v>105363</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>87438</v>
+        <v>88807</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>123849</v>
+        <v>125291</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2245531656550693</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1863499724549302</v>
+        <v>0.1892680771868218</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2639509158658492</v>
+        <v>0.2670245028960792</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>301781</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>269994</v>
+        <v>271166</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>333082</v>
+        <v>335850</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2132138345663579</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1907555702911848</v>
+        <v>0.1915838860671375</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2353284610594343</v>
+        <v>0.237284535551697</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>157</v>
@@ -4874,19 +4874,19 @@
         <v>161140</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>138315</v>
+        <v>139667</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>187021</v>
+        <v>187569</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1561457724481153</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1340288326702015</v>
+        <v>0.1353387619038608</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1812255119073624</v>
+        <v>0.1817558287526383</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>437</v>
@@ -4895,19 +4895,19 @@
         <v>462920</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>425005</v>
+        <v>420882</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>504551</v>
+        <v>503003</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1891499826584281</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1736577265327549</v>
+        <v>0.1719732216222786</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2061601584952646</v>
+        <v>0.2055279711354896</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>227745</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>201590</v>
+        <v>200369</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>257073</v>
+        <v>257236</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1609061140881075</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1424272576947251</v>
+        <v>0.1415647152548302</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1816272068965972</v>
+        <v>0.1817419265356029</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>150</v>
@@ -4945,19 +4945,19 @@
         <v>153318</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>132283</v>
+        <v>132741</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>177771</v>
+        <v>177602</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.14856622875863</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1281836729789456</v>
+        <v>0.1286271006021251</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1722614927547553</v>
+        <v>0.1720984118629241</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>361</v>
@@ -4966,19 +4966,19 @@
         <v>381063</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>346822</v>
+        <v>347625</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>421093</v>
+        <v>418262</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1557027628245912</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1417119925613317</v>
+        <v>0.1420399607549059</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1720591977649824</v>
+        <v>0.1709024724340118</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>305064</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>272532</v>
+        <v>274177</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>337907</v>
+        <v>339334</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2155332364515267</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1925487759709064</v>
+        <v>0.1937109872636807</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2387377122610702</v>
+        <v>0.2397462084370346</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>239</v>
@@ -5016,19 +5016,19 @@
         <v>244151</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>217795</v>
+        <v>218509</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>273092</v>
+        <v>271994</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2365843949763586</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2110451521156318</v>
+        <v>0.2117368135208568</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2646287992995301</v>
+        <v>0.2635642514520545</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>521</v>
@@ -5037,19 +5037,19 @@
         <v>549214</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>509600</v>
+        <v>506111</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>593301</v>
+        <v>591557</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2244098645063276</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2082232187361978</v>
+        <v>0.2067979411371685</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2424236761802567</v>
+        <v>0.2417109297116468</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>297545</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>266339</v>
+        <v>266668</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>329625</v>
+        <v>330512</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2102214376774661</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1881733744512077</v>
+        <v>0.1884060073784551</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2328863626884699</v>
+        <v>0.2335133391947856</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>189</v>
@@ -5087,19 +5087,19 @@
         <v>193705</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>170547</v>
+        <v>169362</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>220224</v>
+        <v>220380</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.187702315106042</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1652616340663007</v>
+        <v>0.1641134828529511</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2133992097669931</v>
+        <v>0.2135498276065927</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>470</v>
@@ -5108,19 +5108,19 @@
         <v>491251</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>451803</v>
+        <v>450136</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>533837</v>
+        <v>534767</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2007258141966393</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.18460742369051</v>
+        <v>0.1839261304573595</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2181267976758321</v>
+        <v>0.2185065892012678</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>283255</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>255385</v>
+        <v>252018</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>318186</v>
+        <v>316117</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2001253772165417</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1804342447474221</v>
+        <v>0.1780553533183312</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.224804131883313</v>
+        <v>0.223342592659356</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>273</v>
@@ -5158,19 +5158,19 @@
         <v>279668</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>252052</v>
+        <v>253613</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>311734</v>
+        <v>308298</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2710012887108542</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2442411271036911</v>
+        <v>0.2457531708157629</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3020732548418006</v>
+        <v>0.2987436636848552</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>535</v>
@@ -5179,19 +5179,19 @@
         <v>562924</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>523302</v>
+        <v>523233</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>607777</v>
+        <v>605649</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2300115758140139</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2138220384400976</v>
+        <v>0.213793915336418</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2483387185655746</v>
+        <v>0.2474693151014339</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>14614</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7494</v>
+        <v>6935</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24530</v>
+        <v>23861</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3782100526261505</v>
+        <v>0.3782100526261503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1939389906709039</v>
+        <v>0.1794707831523137</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6348392610829592</v>
+        <v>0.6175370582599232</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5544,19 +5544,19 @@
         <v>7444</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3702</v>
+        <v>3574</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12967</v>
+        <v>12566</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1921493696915201</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09556387711733083</v>
+        <v>0.09224776847115369</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3346835552451184</v>
+        <v>0.3243434516406665</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -5565,19 +5565,19 @@
         <v>22058</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14150</v>
+        <v>13881</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36212</v>
+        <v>33318</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.285054835329828</v>
+        <v>0.2850548353298281</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1828590034582079</v>
+        <v>0.1793853933307301</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4679657004846058</v>
+        <v>0.4305603682942111</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>7994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3160</v>
+        <v>3300</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15049</v>
+        <v>14795</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2069013320040533</v>
+        <v>0.2069013320040532</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08178306355086455</v>
+        <v>0.08540498909318489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3894788483813086</v>
+        <v>0.3829071800186152</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -5615,19 +5615,19 @@
         <v>7125</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3387</v>
+        <v>3459</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13939</v>
+        <v>12428</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1839142345523183</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0874234797117913</v>
+        <v>0.08928995373012616</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3597704001712849</v>
+        <v>0.3207842465849127</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -5636,19 +5636,19 @@
         <v>15120</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8710</v>
+        <v>8482</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23053</v>
+        <v>23871</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.195392355339271</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1125643678753811</v>
+        <v>0.1096103784278226</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2979084832767503</v>
+        <v>0.3084837630783241</v>
       </c>
     </row>
     <row r="6">
@@ -5668,16 +5668,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8045</v>
+        <v>7964</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06279473302143643</v>
+        <v>0.0627947330214364</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2082116261443461</v>
+        <v>0.2061104526240796</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -5686,19 +5686,19 @@
         <v>8859</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4533</v>
+        <v>4453</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15393</v>
+        <v>14482</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2286677367250644</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1170110553028427</v>
+        <v>0.1149485655278925</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3973066029126571</v>
+        <v>0.3737911677776742</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -5707,19 +5707,19 @@
         <v>11286</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5722</v>
+        <v>6206</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19244</v>
+        <v>20212</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1458425616109614</v>
+        <v>0.1458425616109615</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07393952687015221</v>
+        <v>0.08019843032300468</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2486835341452777</v>
+        <v>0.2612015570400119</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>5774</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1768</v>
+        <v>1902</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12593</v>
+        <v>14102</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1494385126743401</v>
+        <v>0.14943851267434</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04576962887749902</v>
+        <v>0.0492371254519593</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3259189708237482</v>
+        <v>0.3649745615821233</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -5757,19 +5757,19 @@
         <v>9192</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5114</v>
+        <v>5237</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14526</v>
+        <v>15593</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2372649993808883</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.132005207782277</v>
+        <v>0.1351854696791379</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3749338956196087</v>
+        <v>0.4024736811200447</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -5778,19 +5778,19 @@
         <v>14967</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8845</v>
+        <v>8202</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23661</v>
+        <v>23598</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1934107013413864</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1143060701236149</v>
+        <v>0.1059993887795715</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3057737568347779</v>
+        <v>0.3049590290745144</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>7830</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2558</v>
+        <v>2715</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15786</v>
+        <v>15915</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2026553696740198</v>
+        <v>0.2026553696740197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06619645803571236</v>
+        <v>0.07026243263022162</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4085416460819022</v>
+        <v>0.4118773415367756</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -5828,19 +5828,19 @@
         <v>6122</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2756</v>
+        <v>2834</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10900</v>
+        <v>11143</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1580036596502089</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07112631064545648</v>
+        <v>0.07313938757066711</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2813403871106999</v>
+        <v>0.2876038087717054</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -5849,19 +5849,19 @@
         <v>13952</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7795</v>
+        <v>7873</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23227</v>
+        <v>23957</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1802995463785529</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1007350149309358</v>
+        <v>0.1017448639748878</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3001564400743695</v>
+        <v>0.3095967550654276</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>32018</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21715</v>
+        <v>21504</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44031</v>
+        <v>43694</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2740289557982094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1858476199102234</v>
+        <v>0.1840441007872751</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3768392303138743</v>
+        <v>0.3739572251230969</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -5974,19 +5974,19 @@
         <v>16944</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11229</v>
+        <v>10678</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25657</v>
+        <v>25112</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1741911854868153</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1154322209056497</v>
+        <v>0.1097770057060496</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2637581515354987</v>
+        <v>0.258154489204074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -5995,19 +5995,19 @@
         <v>48962</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35606</v>
+        <v>36463</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63783</v>
+        <v>65198</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2286721435493313</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1662940547704382</v>
+        <v>0.1702975363357502</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2978906275060538</v>
+        <v>0.3044978361630241</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>25129</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15789</v>
+        <v>15439</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37413</v>
+        <v>37298</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2150648249701529</v>
+        <v>0.2150648249701528</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1351300332639571</v>
+        <v>0.1321371045045547</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3201982893830024</v>
+        <v>0.3192205143333351</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -6045,19 +6045,19 @@
         <v>19165</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13398</v>
+        <v>12925</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26585</v>
+        <v>27259</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1970167353837151</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1377384328206634</v>
+        <v>0.1328740978128624</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2733046897047239</v>
+        <v>0.2802241711139287</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>42</v>
@@ -6066,19 +6066,19 @@
         <v>44293</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>33012</v>
+        <v>33287</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>59926</v>
+        <v>58639</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2068654850983812</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1541776847269853</v>
+        <v>0.1554614501136365</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2798763943443935</v>
+        <v>0.2738666859740244</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>28775</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19646</v>
+        <v>18786</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40617</v>
+        <v>40178</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.246276791372454</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1681446261046081</v>
+        <v>0.1607852332906861</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3476219574256368</v>
+        <v>0.343865404994544</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -6116,19 +6116,19 @@
         <v>24356</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17036</v>
+        <v>17500</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32794</v>
+        <v>32894</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.250390010220887</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1751332480427185</v>
+        <v>0.1799027883524278</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3371342425510813</v>
+        <v>0.3381536650248148</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -6137,19 +6137,19 @@
         <v>53132</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>40446</v>
+        <v>40614</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>68416</v>
+        <v>68169</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2481454478384892</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1888993109165572</v>
+        <v>0.1896808113865977</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3195313518596035</v>
+        <v>0.3183753914236913</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>22554</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14577</v>
+        <v>14409</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33888</v>
+        <v>33881</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1930280478767371</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1247597674231047</v>
+        <v>0.1233207777062692</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.290029867377138</v>
+        <v>0.2899763907081179</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -6187,19 +6187,19 @@
         <v>16895</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11387</v>
+        <v>11085</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24731</v>
+        <v>24969</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.173685454936525</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1170590207848409</v>
+        <v>0.1139535357308045</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.254237087170151</v>
+        <v>0.2566862616919029</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -6208,19 +6208,19 @@
         <v>39449</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29200</v>
+        <v>29490</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53250</v>
+        <v>52562</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.184240608477206</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1363738238127748</v>
+        <v>0.1377311020722423</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2486994490981169</v>
+        <v>0.2454860588185972</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>8366</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3688</v>
+        <v>4021</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15064</v>
+        <v>15315</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0716013799824467</v>
+        <v>0.07160137998244671</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03156170507865556</v>
+        <v>0.03441803979983453</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1289253568279828</v>
+        <v>0.1310753806721453</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -6258,19 +6258,19 @@
         <v>19914</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12382</v>
+        <v>13297</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27992</v>
+        <v>29496</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2047166139720577</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1272858479379792</v>
+        <v>0.1367007786966749</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.287760569099302</v>
+        <v>0.3032253896268725</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -6279,19 +6279,19 @@
         <v>28280</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18455</v>
+        <v>19252</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38953</v>
+        <v>39178</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1320763150365923</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08619124288022983</v>
+        <v>0.08991351034607097</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1819246361698962</v>
+        <v>0.1829757583653254</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>31407</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21168</v>
+        <v>21748</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42973</v>
+        <v>43893</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2676881339039303</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1804198456702133</v>
+        <v>0.1853634951999535</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3662751067524218</v>
+        <v>0.3741135962945142</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -6404,19 +6404,19 @@
         <v>23322</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16758</v>
+        <v>16011</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31852</v>
+        <v>32762</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1944944616271367</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1397539583274483</v>
+        <v>0.1335252543253901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2656334887737661</v>
+        <v>0.2732166435270263</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -6425,19 +6425,19 @@
         <v>54729</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41066</v>
+        <v>42678</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68943</v>
+        <v>69706</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.230692318377138</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1731003842763026</v>
+        <v>0.1798949324621645</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2906091547101703</v>
+        <v>0.2938239783022002</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>24502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16213</v>
+        <v>16417</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34859</v>
+        <v>35406</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2088403086276145</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1381904538147584</v>
+        <v>0.1399250839319975</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2971180580467387</v>
+        <v>0.3017730728556366</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -6475,19 +6475,19 @@
         <v>17162</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11775</v>
+        <v>11745</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24538</v>
+        <v>25016</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1431245371440886</v>
+        <v>0.1431245371440887</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09819422835246897</v>
+        <v>0.09795028045960136</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2046380426749859</v>
+        <v>0.2086177936561246</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -6496,19 +6496,19 @@
         <v>41664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30164</v>
+        <v>30833</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53458</v>
+        <v>53267</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1756242056042363</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1271496329298429</v>
+        <v>0.1299685755505543</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2253356786496739</v>
+        <v>0.224532833185425</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>29882</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21041</v>
+        <v>21472</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40894</v>
+        <v>40253</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2546935531311886</v>
+        <v>0.2546935531311885</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1793386449382597</v>
+        <v>0.1830159114983133</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3485559557491241</v>
+        <v>0.3430880186335852</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -6546,19 +6546,19 @@
         <v>31177</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22970</v>
+        <v>23503</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39818</v>
+        <v>40158</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2600000735456287</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1915594912551221</v>
+        <v>0.1960055940440288</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3320635486171699</v>
+        <v>0.3348961550531684</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>76</v>
@@ -6567,19 +6567,19 @@
         <v>61059</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48840</v>
+        <v>48461</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>73283</v>
+        <v>74870</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2573757392305466</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2058721150604638</v>
+        <v>0.2042714820542421</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3089050752924932</v>
+        <v>0.3155944958362332</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>15215</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8350</v>
+        <v>8245</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23718</v>
+        <v>23947</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1296786123975511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0711734199476439</v>
+        <v>0.07027582738721577</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2021597607693894</v>
+        <v>0.2041061139379195</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -6617,19 +6617,19 @@
         <v>23076</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15513</v>
+        <v>16218</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33805</v>
+        <v>33508</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1924409233611579</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1293704739390532</v>
+        <v>0.1352496385254281</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2819146266821999</v>
+        <v>0.2794378342692829</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>41</v>
@@ -6638,19 +6638,19 @@
         <v>38290</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27917</v>
+        <v>28327</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53025</v>
+        <v>52502</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.161401885820204</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1176762908481761</v>
+        <v>0.1194052237182922</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2235099007806542</v>
+        <v>0.2213059467395331</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>16320</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7555</v>
+        <v>7566</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30983</v>
+        <v>29728</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1390993919397155</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06439462720979026</v>
+        <v>0.06448396311083122</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2640801061442776</v>
+        <v>0.2533789108944008</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -6688,19 +6688,19 @@
         <v>25174</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18408</v>
+        <v>17462</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34036</v>
+        <v>33108</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2099400043219882</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.153513429407371</v>
+        <v>0.1456223057803253</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2838421072325544</v>
+        <v>0.2761038269973636</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -6709,19 +6709,19 @@
         <v>41494</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30278</v>
+        <v>29582</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>59061</v>
+        <v>57093</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1749058509678752</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1276262243302258</v>
+        <v>0.1246941833942654</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2489537435949779</v>
+        <v>0.2406595950544439</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>76530</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61178</v>
+        <v>59859</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>91820</v>
+        <v>90994</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3815729755152214</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3050270063104075</v>
+        <v>0.2984517387224865</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.457808090054358</v>
+        <v>0.4536897185563298</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -6834,19 +6834,19 @@
         <v>37429</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28297</v>
+        <v>28966</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46715</v>
+        <v>47425</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2896993578829123</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2190124266873091</v>
+        <v>0.2241941511457349</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.361571359526418</v>
+        <v>0.3670666078661552</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -6855,19 +6855,19 @@
         <v>113960</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96873</v>
+        <v>94855</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>135014</v>
+        <v>131622</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3455772962108246</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2937622180820438</v>
+        <v>0.2876435326694119</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.409423295503238</v>
+        <v>0.3991380114836858</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>26604</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17359</v>
+        <v>18391</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>37757</v>
+        <v>38909</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1326473642057047</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08655056619154319</v>
+        <v>0.09169495935506924</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1882535849105609</v>
+        <v>0.1939952078418709</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -6905,19 +6905,19 @@
         <v>18645</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13256</v>
+        <v>12277</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27656</v>
+        <v>25677</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1443072434510667</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1026012866795924</v>
+        <v>0.09501878433610227</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2140510717765413</v>
+        <v>0.1987333807991922</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>53</v>
@@ -6926,19 +6926,19 @@
         <v>45249</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>33590</v>
+        <v>34050</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>57587</v>
+        <v>57903</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1372156536108717</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1018602787759528</v>
+        <v>0.1032553757319562</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1746285195874171</v>
+        <v>0.1755875522735876</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>45937</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>33539</v>
+        <v>33606</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>60984</v>
+        <v>61294</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2290395044352516</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1672212208885532</v>
+        <v>0.1675569496293077</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3040604598857048</v>
+        <v>0.3056065191096025</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>50</v>
@@ -6976,19 +6976,19 @@
         <v>37167</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28399</v>
+        <v>28808</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47498</v>
+        <v>47447</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2876670632160741</v>
+        <v>0.287667063216074</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2198049494154797</v>
+        <v>0.2229741492515229</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3676305444671479</v>
+        <v>0.3672302407432975</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>92</v>
@@ -6997,19 +6997,19 @@
         <v>83104</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>68345</v>
+        <v>67791</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100088</v>
+        <v>100227</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2520095241064049</v>
+        <v>0.252009524106405</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2072541621216848</v>
+        <v>0.205571727604949</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3035128859630827</v>
+        <v>0.303934660551079</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>15435</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8975</v>
+        <v>8751</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25096</v>
+        <v>24542</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07695998843039518</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04474682362048406</v>
+        <v>0.04363156811179636</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1251242801835225</v>
+        <v>0.1223660187628429</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -7047,19 +7047,19 @@
         <v>11064</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6721</v>
+        <v>6747</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17937</v>
+        <v>17323</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08563634285801706</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05202222605442875</v>
+        <v>0.05222188309987178</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1388310317392943</v>
+        <v>0.1340778127515602</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -7068,19 +7068,19 @@
         <v>26500</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18515</v>
+        <v>18079</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36863</v>
+        <v>36410</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08035934593428574</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05614704526255556</v>
+        <v>0.05482517112821537</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1117854451800639</v>
+        <v>0.1104114345936697</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>36058</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24557</v>
+        <v>24788</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50324</v>
+        <v>52971</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1797801674134272</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1224387621966086</v>
+        <v>0.1235884641648689</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2509117657483795</v>
+        <v>0.2641064101928808</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>32</v>
@@ -7118,19 +7118,19 @@
         <v>24896</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17587</v>
+        <v>17849</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>33792</v>
+        <v>34653</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1926899925919297</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1361223320617151</v>
+        <v>0.1381489121224823</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.261546741173202</v>
+        <v>0.2682111677742979</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>58</v>
@@ -7139,19 +7139,19 @@
         <v>60953</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>48218</v>
+        <v>48405</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>80144</v>
+        <v>79897</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.184838180137613</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1462193570998215</v>
+        <v>0.1467846701260454</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2430322461597071</v>
+        <v>0.2422843307486627</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>154568</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>127428</v>
+        <v>129549</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>180549</v>
+        <v>181318</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3265271443215926</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2691924833076234</v>
+        <v>0.2736738685062907</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3814116155307814</v>
+        <v>0.383035433335767</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>103</v>
@@ -7264,19 +7264,19 @@
         <v>85140</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>70690</v>
+        <v>70267</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>100475</v>
+        <v>103342</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2210692537525097</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1835484483674054</v>
+        <v>0.182449573809917</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2608853530304734</v>
+        <v>0.2683313713992613</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>218</v>
@@ -7285,19 +7285,19 @@
         <v>239708</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>211020</v>
+        <v>214670</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>270868</v>
+        <v>270965</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2792180089856121</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2458011282317517</v>
+        <v>0.2500529300710435</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3155130614578883</v>
+        <v>0.3156261540954098</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>84230</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>67014</v>
+        <v>67951</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>105848</v>
+        <v>105280</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1779358269473291</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1415672722586109</v>
+        <v>0.1435475860567301</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.223605160657481</v>
+        <v>0.2224039612086476</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>84</v>
@@ -7335,19 +7335,19 @@
         <v>62097</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50543</v>
+        <v>50535</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>75785</v>
+        <v>76050</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1612364457299063</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.131237589281351</v>
+        <v>0.1312157675357095</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1967784172744154</v>
+        <v>0.1974652692661674</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>158</v>
@@ -7356,19 +7356,19 @@
         <v>146326</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>124862</v>
+        <v>125507</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>169881</v>
+        <v>169386</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.170444369629352</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1454420902906746</v>
+        <v>0.1461932241186345</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1978818529761275</v>
+        <v>0.1973043453709762</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>107021</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>85724</v>
+        <v>88337</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>127428</v>
+        <v>129337</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2260826814727025</v>
+        <v>0.2260826814727024</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1810918650701067</v>
+        <v>0.1866135522550619</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2691933329597225</v>
+        <v>0.2732247035254597</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>137</v>
@@ -7406,19 +7406,19 @@
         <v>101559</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>87139</v>
+        <v>86651</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>118080</v>
+        <v>117945</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2637024190912433</v>
+        <v>0.2637024190912432</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2262601153544583</v>
+        <v>0.2249912028135819</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.306598237190194</v>
+        <v>0.3062480988308541</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>234</v>
@@ -7427,19 +7427,19 @@
         <v>208580</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>182894</v>
+        <v>186778</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>233277</v>
+        <v>238933</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2429591546194297</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.213039471037006</v>
+        <v>0.2175630636541789</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2717266760507402</v>
+        <v>0.278314721012845</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>58978</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>43633</v>
+        <v>45595</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>75213</v>
+        <v>76770</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1245913651365313</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09217493846319154</v>
+        <v>0.09631974427177876</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1588873146482824</v>
+        <v>0.162177101783754</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>77</v>
@@ -7477,19 +7477,19 @@
         <v>60228</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>48403</v>
+        <v>48040</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>75107</v>
+        <v>75145</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1563827832907965</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1256806966670184</v>
+        <v>0.1247376639188314</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1950170291667871</v>
+        <v>0.1951163968296731</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>130</v>
@@ -7498,19 +7498,19 @@
         <v>119205</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>98877</v>
+        <v>99146</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>140084</v>
+        <v>140583</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1388532140685241</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1151738661578344</v>
+        <v>0.1154876429401179</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1631729057608265</v>
+        <v>0.1637539683405999</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>68574</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>53018</v>
+        <v>51372</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>90872</v>
+        <v>92963</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1448629821218445</v>
+        <v>0.1448629821218444</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1120003243740031</v>
+        <v>0.1085227771605916</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1919680670371708</v>
+        <v>0.1963846497516392</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>92</v>
@@ -7548,19 +7548,19 @@
         <v>76105</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>62061</v>
+        <v>62651</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>91515</v>
+        <v>92135</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1976090981355442</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1611436933880561</v>
+        <v>0.1626749105396179</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2376227684036106</v>
+        <v>0.2392308072384718</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>140</v>
@@ -7569,19 +7569,19 @@
         <v>144679</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>122683</v>
+        <v>121761</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>170875</v>
+        <v>173444</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1685252526970822</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1429035623559849</v>
+        <v>0.1418298766971707</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1990390225316667</v>
+        <v>0.2020317473836978</v>
       </c>
     </row>
     <row r="33">
